--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2710.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2710.xlsx
@@ -354,7 +354,7 @@
         <v>2.408488472894207</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.347803397642366</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2710.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2710.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167195550243684</v>
+        <v>0.9956793189048767</v>
       </c>
       <c r="B1">
-        <v>2.408488472894207</v>
+        <v>2.736323595046997</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.659855365753174</v>
       </c>
       <c r="D1">
-        <v>2.347803397642366</v>
+        <v>1.094549536705017</v>
       </c>
       <c r="E1">
-        <v>1.215304863139733</v>
+        <v>1.27775502204895</v>
       </c>
     </row>
   </sheetData>
